--- a/data/37/37.xlsx
+++ b/data/37/37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Sku</t>
   </si>
@@ -33,7 +33,103 @@
     <t>Avg Landed Costs</t>
   </si>
   <si>
+    <t>Castle-Play-Tent-Orian</t>
+  </si>
+  <si>
+    <t>ORIAN Princess Castle Playhouse Tent for Girls with LED Star Lights – Indoor &amp; Outdoor Large Kids Play Tent for Imaginative Games – ASTM Certified, Princess Tent, 230 Polyester Taffeta. Pink 55"x53".</t>
+  </si>
+  <si>
+    <t>B07TV8HCMT</t>
+  </si>
+  <si>
+    <t>793611000049</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>GA-DBZG-GTH3</t>
+  </si>
+  <si>
+    <t>Orian Toys Teepee Tent for Kids: Child’s Indoor Outdoor Canvas Fairytale Tipi Playroom, LED Star Lights, Easy Assembly, 59 by 45 Inches, Ages 3+</t>
+  </si>
+  <si>
+    <t>B08N56JXNR</t>
+  </si>
+  <si>
     <t>child</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>STEM-Toys-Education-Engineering-Orian</t>
+  </si>
+  <si>
+    <t>Orian Toys 5 in 1 STEM Learning Toys for Boys and Girls, Best IQ Builder STEM Learning Toys Creative Construction Engineering for Kids 5-11 years old, DIY Building Kit, 132 Pieces, Play Set - Gift Box</t>
+  </si>
+  <si>
+    <t>B08B1P25HR</t>
+  </si>
+  <si>
+    <t>793611000094</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>Teepee-Tent-Orian</t>
+  </si>
+  <si>
+    <t>Teepee Tent for Kids - A Fairytale Tipi Tent Kids Love. LED Star Lights, Dream Catcher - Strong Indoor Tee Pee Tent - Kids Play Tent for Boys &amp; Girls</t>
+  </si>
+  <si>
+    <t>B089M859ZQ</t>
+  </si>
+  <si>
+    <t>793611000087</t>
+  </si>
+  <si>
+    <t>Teepee_Pompon</t>
+  </si>
+  <si>
+    <t>Orian Teepee Tent for Kids - Indoor Tent, Pompon Ball Design, Built-in Mat, Inner Pockets, Window, LED Star Lights, Dream Catcher, Unique Threaded Poles - The Perfect Play Tent for Girls &amp; Boys</t>
+  </si>
+  <si>
+    <t>B00KG50JUU</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>XQ-OECU-MGA4</t>
+  </si>
+  <si>
+    <t>Orian Pop Beads Jewelry Making Kit for Girls, 550+ Piece Set, Pop Beads for Girls Ages 3 and Up, Fun and Colorful Snap Beads, Bracelet Making Kit, Necklaces and Rings. Great Colorful Unicorn Gift Bag</t>
+  </si>
+  <si>
+    <t>B07T8RLTY2</t>
+  </si>
+  <si>
+    <t>793611000032</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Teepee Tents</t>
+  </si>
+  <si>
+    <t>Orian Teepee Tent for Kids - Indoor Tent Built-in Mat, Inner Pockets, Window, LED Star Lights, Dream Catcher - The Perfect Play Tent for Girls &amp; Boys</t>
+  </si>
+  <si>
+    <t>B0B136RGLH</t>
+  </si>
+  <si>
+    <t>parent</t>
   </si>
 </sst>
 </file>
@@ -456,33 +552,123 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -572,8 +758,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/37/37.xlsx
+++ b/data/37/37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Sku</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Avg Landed Costs</t>
   </si>
   <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
     <t>Castle-Play-Tent-Orian</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>10.78</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>GA-DBZG-GTH3</t>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -529,9 +535,10 @@
     <col min="2" max="2" width="160" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,125 +557,146 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -688,13 +716,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="150" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="160" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +742,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -722,7 +758,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -731,13 +767,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="150" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="160" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,27 +793,36 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
